--- a/Fabril Docs Vital/VPL Updated/Employees Excel sheets/April excel 2018/Prabhjot  Pardeep.xlsx
+++ b/Fabril Docs Vital/VPL Updated/Employees Excel sheets/April excel 2018/Prabhjot  Pardeep.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$49</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
